--- a/bank statement generator/bank_statements/statement_141.xlsx
+++ b/bank statement generator/bank_statements/statement_141.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 18.03.2025</t>
+          <t>KONTOSTAND AM 25.10.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,34 +759,34 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>22.03.</t>
+          <t>27.10.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>23.03.</t>
+          <t>28.10.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Ochsenfurt</t>
+          <t>KARTENZ./27.10 REWE RO</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>36,51-</t>
+          <t>100,81-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>26.03.</t>
+          <t>30.10.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>27.03.</t>
+          <t>31.10.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -796,109 +796,93 @@
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>24,81-</t>
+          <t>25,20-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>29.03.</t>
+          <t>03.11.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>30.03.</t>
+          <t>04.11.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 4045357</t>
+          <t>BURGER KING Schwandorf</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>39,04-</t>
+          <t>37,34-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>02.04.</t>
+          <t>06.11.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>03.04.</t>
+          <t>07.11.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>50,88-</t>
+          <t>83,39-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>06.04.</t>
+          <t>10.11.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>07.04.</t>
+          <t>11.11.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>ZALANDO MKTPLC EU MNILCQ</t>
+          <t>RECHNUNG VODAFONE GMBH 57145650</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>103,33-</t>
+          <t>40,26-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>09.04.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>10.04.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 79485379</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>85,04-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 14.04.2025</t>
+          <t>KONTOSTAND AM 14.11.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>339,61-</t>
+          <t>287,00-</t>
         </is>
       </c>
     </row>
@@ -906,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 23.04.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 21.11.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
